--- a/site/StructureDefinition-medme-pharmacy-schedule.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-schedule.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.11</t>
+    <t>0.9.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T15:54:27-03:00</t>
+    <t>2025-10-03T11:11:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -851,7 +851,7 @@
     <t>healthcareServices</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcareservice)
+    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcare-service)
 </t>
   </si>
   <si>

--- a/site/StructureDefinition-medme-pharmacy-schedule.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T11:11:24-03:00</t>
+    <t>2025-10-30T18:43:23-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -851,7 +851,7 @@
     <t>healthcareServices</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcare-service)
+    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcareservice)
 </t>
   </si>
   <si>

--- a/site/StructureDefinition-medme-pharmacy-schedule.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-schedule.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="276">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.15</t>
+    <t>0.9.20</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T18:43:23-03:00</t>
+    <t>2025-11-18T19:57:13-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -819,7 +819,7 @@
     <t>Schedule.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Device|4.0.1|HealthcareService|4.0.1|Location|4.0.1)
+    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcareservice|https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-location)
 </t>
   </si>
   <si>
@@ -832,43 +832,14 @@
     <t>The capacity to support multiple referenced resource types should be used in cases where the specific resources themselves cannot be scheduled without the other, and thus only make sense to the system exposing them as a group. Common examples of this are where the combination of a practitioner and a room (Location) are always required by a system.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the actor reference type</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+at-least-one-location:At least one actor must be a Location {where(reference.startsWith('Location/')).count() &gt;= 1}</t>
   </si>
   <si>
     <t>ATTENDEE:MAILTO:john_public@host2.com This can be populated with a value from the referenced resource</t>
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Schedule.actor:healthcareServices</t>
-  </si>
-  <si>
-    <t>healthcareServices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcareservice)
-</t>
-  </si>
-  <si>
-    <t>Healthcare services available during this schedule</t>
-  </si>
-  <si>
-    <t>Schedule.actor:locations</t>
-  </si>
-  <si>
-    <t>locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-location)
-</t>
-  </si>
-  <si>
-    <t>Location(s) where this schedule applies</t>
   </si>
   <si>
     <t>Schedule.planningHorizon</t>
@@ -1200,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM38"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1211,7 +1182,7 @@
   <cols>
     <col min="1" max="1" width="36.0703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.9375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.57421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1219,7 +1190,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="171.0859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4987,16 +4958,16 @@
         <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>259</v>
@@ -5011,28 +4982,26 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>264</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5041,7 +5010,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5053,17 +5022,15 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5112,13 +5079,13 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
@@ -5130,10 +5097,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
@@ -5141,17 +5108,15 @@
         <v>272</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
@@ -5163,20 +5128,18 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -5225,13 +5188,13 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
@@ -5243,227 +5206,9 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/site/StructureDefinition-medme-pharmacy-schedule.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-schedule.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.20</t>
+    <t>0.9.21</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T19:57:13-03:00</t>
+    <t>2025-11-24T17:38:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1180,17 +1180,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.57421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.88671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.19140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="171.0859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="169.6015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1199,25 +1199,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.98046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.0546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.23046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.2890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="86.17578125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/site/StructureDefinition-medme-pharmacy-schedule.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T17:38:48-05:00</t>
+    <t>2025-11-25T16:51:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-schedule.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-schedule.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.21</t>
+    <t>0.9.22</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T17:38:48-05:00</t>
+    <t>2025-11-25T17:07:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-schedule.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-schedule.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.22</t>
+    <t>0.9.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T17:07:48-05:00</t>
+    <t>2025-12-02T11:10:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1180,17 +1180,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.19140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.09375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.57421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="169.6015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="171.0859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1199,25 +1199,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.23046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="28.2890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.98046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.0546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="86.17578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/site/StructureDefinition-medme-pharmacy-schedule.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-schedule.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.23</t>
+    <t>0.9.24</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T11:10:54-03:00</t>
+    <t>2025-12-08T15:17:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1180,17 +1180,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.57421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.88671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.19140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="171.0859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="169.6015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1199,25 +1199,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.98046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.0546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.23046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.2890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="86.17578125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/site/StructureDefinition-medme-pharmacy-schedule.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-schedule.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.24</t>
+    <t>0.9.25</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T15:17:38-05:00</t>
+    <t>2025-12-10T09:54:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
